--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="243">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -291,7 +291,7 @@
     <t>Bank Logo should not displayed.</t>
   </si>
   <si>
-    <t>Bank_Name3 should displayed with letter wrap.</t>
+    <t>&lt;Bank_Name3&gt; should displayed with letter wrap.</t>
   </si>
   <si>
     <t>Iban_No&lt;invalid_Account_No&gt; should displayed as ERT without "*".</t>
@@ -363,25 +363,25 @@
     <t>"Limit Bilgileri" label should be displayed in fourt row of Popup</t>
   </si>
   <si>
-    <t>"Minimum Para Yükleme Limiti" label and Min_Money_Load_Limit1 and currency1 should be displayed in fifth row of popup</t>
+    <t>"Minimum Para Yükleme Limiti" label and &lt;Min_Money_Load_Limit1&gt; and &lt;currency1&gt; should be displayed in fifth row of popup</t>
   </si>
   <si>
-    <t>"Maximum Para Yükleme Limiti" label and Max_Money_Load_Limit1 and currency1 should be displayed in fifth row of popup</t>
+    <t>"Maximum Para Yükleme Limiti" label and &lt;Max_Money_Load_Limit1&gt; and &lt;currency1&gt; should be displayed in fifth row of popup</t>
   </si>
   <si>
-    <t>"IBAN" label and Iban_No1 should be displayed in sixth row of popup with copy icon</t>
+    <t>"IBAN" label and &lt;Iban_No1&gt; should be displayed in sixth row of popup with copy icon</t>
   </si>
   <si>
-    <t>"Alıcı" label and Customer_No1 should be displayed in seventh row of popup with copy icon</t>
+    <t>"Alıcı" label and &lt;Customer_No1&gt; should be displayed in seventh row of popup with copy icon</t>
   </si>
   <si>
-    <t>"Hesap No" label and Account_No1 should be displayed in eighth row of popup</t>
+    <t>"Hesap No" label and &lt;Account_No1&gt; should be displayed in eighth row of popup</t>
   </si>
   <si>
-    <t>"Şube Kodu" label and Office_No1 should be displayed in nineth row of popup</t>
+    <t>"Şube Kodu" label and &lt;Office_No1&gt; should be displayed in nineth row of popup</t>
   </si>
   <si>
-    <t>"Açıklama" label and Customer_no should be displayed in nineth row of popup with copy icon</t>
+    <t>"Açıklama" label and &lt;Customer_no&gt; should be displayed in nineth row of popup with copy icon</t>
   </si>
   <si>
     <t>Click "Iban Kopyala" Icon</t>
@@ -483,7 +483,7 @@
     <t>A card with "Yeni Bir Banka Hesabına Gönder" text should be displayed in first column of customer accounts row</t>
   </si>
   <si>
-    <t>An account card with customer account details (Customer_Name1, Bank_Name1, Iban_No_1) should be displayed in second column of customer account row.</t>
+    <t>An account card with customer account details (&lt;Customer_Name1&gt;, &lt;Bank_Name1&gt;, &lt;Iban_No_1&gt;) should be displayed in second column of customer account row.</t>
   </si>
   <si>
     <t>Move mouse to "Yeni Bir Banka Hesabına Gönder" card</t>
@@ -657,13 +657,13 @@
     <t>Enter 4.00 to "Gönderilecek Tutar" input Box</t>
   </si>
   <si>
-    <t>Helper Text of "Gönderilecek Tutar" input Box should Min_Limit_Message</t>
+    <t>Helper Text of "Gönderilecek Tutar" input Box should &lt;Min_Limit_Message&gt;</t>
   </si>
   <si>
     <t>Enter 10.00 to "Gönderilecek Tutar" input Box</t>
   </si>
   <si>
-    <t>Helper Text of "Gönderilecek Tutar" input Box should Max_Limit_Message</t>
+    <t>Helper Text of "Gönderilecek Tutar" input Box should &lt;Max_Limit_Message&gt;</t>
   </si>
   <si>
     <t>Enter 0,321</t>
@@ -793,10 +793,10 @@
     <t>"Alıcı Adı" label and receiverName inputBox should be displayed in second row</t>
   </si>
   <si>
-    <t>receiverName inputBox Test should be Account_Owner1</t>
+    <t>receiverName inputBox Test should be &lt;Account_Owner1&gt;</t>
   </si>
   <si>
-    <t>HelperText of receiverName inputBox should be receiverNameWarning</t>
+    <t>HelperText of receiverName inputBox should be &lt;receiverNameWarning&gt;</t>
   </si>
   <si>
     <t>"Alıcı IBAN" label and IbanNo inputBox should be displayed in third row</t>
@@ -29348,14 +29348,6 @@
     <mergeCell ref="I24:K24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="B27:C27"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:K1"/>
@@ -29394,6 +29386,14 @@
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="F21:H21"/>
     <mergeCell ref="I21:K21"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="F1"/>
@@ -32319,60 +32319,6 @@
     </row>
   </sheetData>
   <mergeCells count="129">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="G11:K11"/>
-    <mergeCell ref="G12:K12"/>
-    <mergeCell ref="G13:K13"/>
-    <mergeCell ref="G14:K14"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="G17:K17"/>
-    <mergeCell ref="G18:K18"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:C25"/>
-    <mergeCell ref="D24:E25"/>
-    <mergeCell ref="F24:H25"/>
-    <mergeCell ref="I24:K25"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="G10:K10"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:K32"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:K1"/>
@@ -32380,10 +32326,6 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G8:K8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="G9:K9"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A6:B6"/>
@@ -32391,63 +32333,121 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G13:K13"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G17:K17"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="G11:K11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="F47:H47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:C25"/>
+    <mergeCell ref="D24:E25"/>
+    <mergeCell ref="F24:H25"/>
+    <mergeCell ref="I24:K25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
     <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
     <mergeCell ref="F35:H35"/>
     <mergeCell ref="I35:K35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
     <mergeCell ref="F37:H37"/>
     <mergeCell ref="I37:K37"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B43:C43"/>
     <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="I40:K40"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="F40:H40"/>
     <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I40:K40"/>
     <mergeCell ref="I41:K41"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
     <mergeCell ref="F36:H36"/>
     <mergeCell ref="I36:K36"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:H47"/>
+    <mergeCell ref="I47:K47"/>
     <mergeCell ref="F44:H44"/>
     <mergeCell ref="I44:K44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="I46:K46"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="F1"/>
@@ -36071,119 +36071,111 @@
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="I39:K39"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="F40:H40"/>
     <mergeCell ref="I40:K40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="F48:H48"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="F53:H53"/>
-    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="B56:C56"/>
     <mergeCell ref="F54:H54"/>
     <mergeCell ref="I54:K54"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="I58:K58"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D58:E58"/>
     <mergeCell ref="F56:H56"/>
     <mergeCell ref="I56:K56"/>
     <mergeCell ref="F57:H57"/>
     <mergeCell ref="I57:K57"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="F48:H48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="F49:H49"/>
+    <mergeCell ref="I49:K49"/>
     <mergeCell ref="F50:H50"/>
     <mergeCell ref="I50:K50"/>
-    <mergeCell ref="F51:H51"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F58:H58"/>
-    <mergeCell ref="I58:K58"/>
-    <mergeCell ref="F59:H59"/>
-    <mergeCell ref="I59:K59"/>
-    <mergeCell ref="F52:H52"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
     <mergeCell ref="F28:H28"/>
     <mergeCell ref="I28:K28"/>
     <mergeCell ref="B29:C29"/>
     <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:H59"/>
+    <mergeCell ref="I59:K59"/>
+    <mergeCell ref="F51:H51"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="F52:H52"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="F53:H53"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B19:D19"/>
     <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
     <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="F25:H26"/>
+    <mergeCell ref="I25:K26"/>
     <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="G21:K21"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:K1"/>
@@ -36205,19 +36197,15 @@
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="G10:K10"/>
     <mergeCell ref="G11:K11"/>
-    <mergeCell ref="D25:E26"/>
-    <mergeCell ref="F25:H26"/>
-    <mergeCell ref="I25:K26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B17:D17"/>
+    <mergeCell ref="G19:K19"/>
     <mergeCell ref="G20:K20"/>
-    <mergeCell ref="G19:K19"/>
-    <mergeCell ref="G21:K21"/>
     <mergeCell ref="G12:K12"/>
     <mergeCell ref="G13:K13"/>
     <mergeCell ref="G14:K14"/>
@@ -36225,31 +36213,43 @@
     <mergeCell ref="G16:K16"/>
     <mergeCell ref="G17:K17"/>
     <mergeCell ref="G18:K18"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="D45:E45"/>
     <mergeCell ref="F47:H47"/>
     <mergeCell ref="I47:K47"/>
-    <mergeCell ref="B47:C47"/>
     <mergeCell ref="D47:E47"/>
-    <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="D49:E49"/>
     <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
     <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D51:E51"/>
     <mergeCell ref="D52:E52"/>
     <mergeCell ref="B53:C53"/>
     <mergeCell ref="D53:E53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="B56:C56"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="F1"/>
@@ -36962,9 +36962,7 @@
       <c r="C37" s="6"/>
       <c r="D37" s="24"/>
       <c r="E37" s="6"/>
-      <c r="F37" s="25" t="s">
-        <v>32</v>
-      </c>
+      <c r="F37" s="25"/>
       <c r="G37" s="5"/>
       <c r="H37" s="6"/>
       <c r="I37" s="25" t="s">
@@ -37126,129 +37124,129 @@
     </row>
   </sheetData>
   <mergeCells count="123">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:K1"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="I40:K40"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="G15:K15"/>
-    <mergeCell ref="F20:H21"/>
-    <mergeCell ref="I20:K21"/>
-    <mergeCell ref="F1:K1"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="G12:K12"/>
     <mergeCell ref="G13:K13"/>
     <mergeCell ref="G14:K14"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="I33:K33"/>
-    <mergeCell ref="G12:K12"/>
+    <mergeCell ref="G15:K15"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G8:K8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:K10"/>
     <mergeCell ref="G11:K11"/>
+    <mergeCell ref="D20:E21"/>
+    <mergeCell ref="F20:H21"/>
+    <mergeCell ref="I20:K21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="G10:K10"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="D34:E34"/>
     <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
     <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="D26:E26"/>
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="I26:K26"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="D20:E21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:K32"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D29:E29"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:K31"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="I42:K42"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="F1"/>
